--- a/ProjectMVC/ProjectMVC2 Excel.xlsx
+++ b/ProjectMVC/ProjectMVC2 Excel.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Военка" sheetId="1" r:id="rId1"/>
-    <sheet name="КНК" sheetId="2" r:id="rId2"/>
-    <sheet name="МНР" sheetId="3" r:id="rId3"/>
+    <sheet name="Військова" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Кафедра</t>
   </si>
@@ -42,55 +40,25 @@
     <t>В27</t>
   </si>
   <si>
-    <t>Военный</t>
-  </si>
-  <si>
-    <t>Военнов</t>
-  </si>
-  <si>
-    <t>ОР</t>
-  </si>
-  <si>
-    <t>ПО</t>
-  </si>
-  <si>
-    <t>П22</t>
-  </si>
-  <si>
-    <t>П23</t>
-  </si>
-  <si>
-    <t>Тимур</t>
-  </si>
-  <si>
-    <t>Краснослободцев</t>
-  </si>
-  <si>
-    <t>Краснохер</t>
-  </si>
-  <si>
-    <t>РОТ</t>
-  </si>
-  <si>
-    <t>Р22</t>
-  </si>
-  <si>
-    <t>Лиза</t>
-  </si>
-  <si>
-    <t>Противная</t>
-  </si>
-  <si>
-    <t>ШОР</t>
-  </si>
-  <si>
-    <t>Г55</t>
-  </si>
-  <si>
-    <t>Орос</t>
-  </si>
-  <si>
-    <t>Оврнув</t>
+    <t>ВА</t>
+  </si>
+  <si>
+    <t>В34</t>
+  </si>
+  <si>
+    <t>Сергій</t>
+  </si>
+  <si>
+    <t>Сержантов</t>
+  </si>
+  <si>
+    <t>Андрій</t>
+  </si>
+  <si>
+    <t>Генералов</t>
+  </si>
+  <si>
+    <t>Рлваоп</t>
   </si>
 </sst>
 </file>
@@ -437,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,133 +448,77 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>15178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>16682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16682</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1">
-        <v>36819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1">
-        <v>36871</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
-        <v>36819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>36443</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>